--- a/team_specific_matrix/Grambling_A.xlsx
+++ b/team_specific_matrix/Grambling_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2173913043478261</v>
+        <v>0.2230769230769231</v>
       </c>
       <c r="C2">
-        <v>0.5362318840579711</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004830917874396135</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1449275362318841</v>
+        <v>0.15</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0966183574879227</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C3">
-        <v>0.01769911504424779</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01769911504424779</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7433628318584071</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2212389380530974</v>
+        <v>0.1956521739130435</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7333333333333333</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2666666666666667</v>
+        <v>0.3095238095238095</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08888888888888889</v>
+        <v>0.1183431952662722</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01481481481481482</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07407407407407407</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2074074074074074</v>
+        <v>0.1893491124260355</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03703703703703703</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1259259259259259</v>
+        <v>0.1479289940828402</v>
       </c>
       <c r="R6">
-        <v>0.05185185185185185</v>
+        <v>0.04733727810650887</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07857142857142857</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02142857142857143</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05714285714285714</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1285714285714286</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03571428571428571</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1785714285714286</v>
+        <v>0.151685393258427</v>
       </c>
       <c r="R7">
-        <v>0.08571428571428572</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="S7">
-        <v>0.4142857142857143</v>
+        <v>0.4550561797752809</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1155115511551155</v>
+        <v>0.1088082901554404</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0165016501650165</v>
+        <v>0.01813471502590673</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0462046204620462</v>
+        <v>0.04404145077720207</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1254125412541254</v>
+        <v>0.1217616580310881</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0264026402640264</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1353135313531353</v>
+        <v>0.1580310880829016</v>
       </c>
       <c r="R8">
-        <v>0.07920792079207921</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="S8">
-        <v>0.4554455445544555</v>
+        <v>0.4404145077720207</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05982905982905983</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02564102564102564</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09401709401709402</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1452991452991453</v>
+        <v>0.1513157894736842</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2222222222222222</v>
+        <v>0.2171052631578947</v>
       </c>
       <c r="R9">
-        <v>0.02564102564102564</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="S9">
-        <v>0.4273504273504273</v>
+        <v>0.4276315789473684</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1209476309226933</v>
+        <v>0.1114341085271318</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02369077306733167</v>
+        <v>0.0251937984496124</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06733167082294264</v>
+        <v>0.07170542635658915</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1097256857855362</v>
+        <v>0.1143410852713178</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0199501246882793</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2119700748129676</v>
+        <v>0.2354651162790698</v>
       </c>
       <c r="R10">
-        <v>0.0598503740648379</v>
+        <v>0.0562015503875969</v>
       </c>
       <c r="S10">
-        <v>0.3865336658354115</v>
+        <v>0.3662790697674418</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1497584541062802</v>
+        <v>0.1532567049808429</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06280193236714976</v>
+        <v>0.06130268199233716</v>
       </c>
       <c r="K11">
-        <v>0.1980676328502415</v>
+        <v>0.2030651340996169</v>
       </c>
       <c r="L11">
-        <v>0.5845410628019324</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004830917874396135</v>
+        <v>0.007662835249042145</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7244094488188977</v>
+        <v>0.7388535031847133</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1653543307086614</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="K12">
-        <v>0.02362204724409449</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="L12">
-        <v>0.03937007874015748</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04724409448818898</v>
+        <v>0.03821656050955414</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2962962962962963</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03703703703703703</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,28 +1277,28 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02083333333333333</v>
+        <v>0.015625</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1111111111111111</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="I15">
-        <v>0.06944444444444445</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J15">
-        <v>0.3958333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="K15">
-        <v>0.04861111111111111</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006944444444444444</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2847222222222222</v>
+        <v>0.2552083333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007575757575757576</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1515151515151515</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I16">
-        <v>0.06818181818181818</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J16">
-        <v>0.4090909090909091</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K16">
-        <v>0.1515151515151515</v>
+        <v>0.1369047619047619</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01515151515151515</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04545454545454546</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1515151515151515</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01067615658362989</v>
+        <v>0.01272264631043257</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2206405693950178</v>
+        <v>0.2061068702290076</v>
       </c>
       <c r="I17">
-        <v>0.08185053380782918</v>
+        <v>0.08651399491094147</v>
       </c>
       <c r="J17">
-        <v>0.3807829181494662</v>
+        <v>0.4071246819338422</v>
       </c>
       <c r="K17">
-        <v>0.1387900355871886</v>
+        <v>0.1195928753180662</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01067615658362989</v>
+        <v>0.01272264631043257</v>
       </c>
       <c r="N17">
-        <v>0.003558718861209964</v>
+        <v>0.002544529262086514</v>
       </c>
       <c r="O17">
-        <v>0.03914590747330961</v>
+        <v>0.04325699745547074</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1138790035587189</v>
+        <v>0.1094147582697201</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1505376344086022</v>
+        <v>0.1565217391304348</v>
       </c>
       <c r="I18">
-        <v>0.06451612903225806</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="J18">
-        <v>0.4086021505376344</v>
+        <v>0.4</v>
       </c>
       <c r="K18">
-        <v>0.1397849462365591</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02150537634408602</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="N18">
-        <v>0.01075268817204301</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="O18">
-        <v>0.05376344086021505</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1505376344086022</v>
+        <v>0.1478260869565217</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01362088535754824</v>
+        <v>0.01197053406998158</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2213393870601589</v>
+        <v>0.2274401473296501</v>
       </c>
       <c r="I19">
-        <v>0.07718501702610669</v>
+        <v>0.07642725598526703</v>
       </c>
       <c r="J19">
-        <v>0.3700340522133939</v>
+        <v>0.3710865561694291</v>
       </c>
       <c r="K19">
-        <v>0.09307604994324631</v>
+        <v>0.09208103130755065</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02383654937570942</v>
+        <v>0.02394106813996317</v>
       </c>
       <c r="N19">
-        <v>0.001135073779795687</v>
+        <v>0.0009208103130755065</v>
       </c>
       <c r="O19">
-        <v>0.0681044267877412</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1316685584562997</v>
+        <v>0.1243093922651934</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Grambling_A.xlsx
+++ b/team_specific_matrix/Grambling_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2230769230769231</v>
+        <v>0.2230483271375465</v>
       </c>
       <c r="C2">
-        <v>0.5230769230769231</v>
+        <v>0.5241635687732342</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003846153846153846</v>
+        <v>0.003717472118959108</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.15</v>
+        <v>0.1524163568773234</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1</v>
+        <v>0.09665427509293681</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007246376811594203</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C3">
-        <v>0.01449275362318841</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01449275362318841</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7681159420289855</v>
+        <v>0.7622377622377622</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1956521739130435</v>
+        <v>0.2027972027972028</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6904761904761905</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3095238095238095</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1183431952662722</v>
+        <v>0.1135135135135135</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01775147928994083</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0650887573964497</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1893491124260355</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02958579881656805</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1479289940828402</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="R6">
-        <v>0.04733727810650887</v>
+        <v>0.04324324324324325</v>
       </c>
       <c r="S6">
-        <v>0.3846153846153846</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0898876404494382</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01685393258426966</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05617977528089887</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1179775280898876</v>
+        <v>0.1210526315789474</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03932584269662921</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.151685393258427</v>
+        <v>0.1526315789473684</v>
       </c>
       <c r="R7">
-        <v>0.07303370786516854</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="S7">
-        <v>0.4550561797752809</v>
+        <v>0.4421052631578947</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1088082901554404</v>
+        <v>0.1124121779859485</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01813471502590673</v>
+        <v>0.01873536299765808</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04404145077720207</v>
+        <v>0.04449648711943794</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1217616580310881</v>
+        <v>0.1217798594847775</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0310880829015544</v>
+        <v>0.03044496487119438</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1580310880829016</v>
+        <v>0.1569086651053864</v>
       </c>
       <c r="R8">
-        <v>0.07772020725388601</v>
+        <v>0.07259953161592506</v>
       </c>
       <c r="S8">
-        <v>0.4404145077720207</v>
+        <v>0.4426229508196721</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05263157894736842</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03289473684210526</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07894736842105263</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1513157894736842</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006578947368421052</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2171052631578947</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.03289473684210526</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="S9">
-        <v>0.4276315789473684</v>
+        <v>0.4363636363636363</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1114341085271318</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0251937984496124</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07170542635658915</v>
+        <v>0.07326007326007326</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1143410852713178</v>
+        <v>0.1172161172161172</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01937984496124031</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2354651162790698</v>
+        <v>0.2344322344322344</v>
       </c>
       <c r="R10">
-        <v>0.0562015503875969</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="S10">
-        <v>0.3662790697674418</v>
+        <v>0.3663003663003663</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1532567049808429</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06130268199233716</v>
+        <v>0.06071428571428571</v>
       </c>
       <c r="K11">
-        <v>0.2030651340996169</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0.5747126436781609</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007662835249042145</v>
+        <v>0.01785714285714286</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7388535031847133</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1592356687898089</v>
+        <v>0.152046783625731</v>
       </c>
       <c r="K12">
-        <v>0.02547770700636943</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="L12">
-        <v>0.03821656050955414</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03821656050955414</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6571428571428571</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05714285714285714</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.015625</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1145833333333333</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="I15">
-        <v>0.08333333333333333</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="J15">
-        <v>0.375</v>
+        <v>0.3707317073170732</v>
       </c>
       <c r="K15">
-        <v>0.08333333333333333</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01041666666666667</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0625</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2552083333333333</v>
+        <v>0.2634146341463415</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005952380952380952</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1428571428571428</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="I16">
-        <v>0.07142857142857142</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="J16">
-        <v>0.4285714285714285</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="K16">
-        <v>0.1369047619047619</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05357142857142857</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01272264631043257</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2061068702290076</v>
+        <v>0.2072289156626506</v>
       </c>
       <c r="I17">
-        <v>0.08651399491094147</v>
+        <v>0.0819277108433735</v>
       </c>
       <c r="J17">
-        <v>0.4071246819338422</v>
+        <v>0.4144578313253012</v>
       </c>
       <c r="K17">
-        <v>0.1195928753180662</v>
+        <v>0.1180722891566265</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01272264631043257</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="N17">
-        <v>0.002544529262086514</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="O17">
-        <v>0.04325699745547074</v>
+        <v>0.04337349397590361</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1094147582697201</v>
+        <v>0.108433734939759</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1565217391304348</v>
+        <v>0.1596638655462185</v>
       </c>
       <c r="I18">
-        <v>0.06956521739130435</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="J18">
-        <v>0.4</v>
+        <v>0.4033613445378151</v>
       </c>
       <c r="K18">
-        <v>0.1304347826086956</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01739130434782609</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="N18">
-        <v>0.008695652173913044</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="O18">
-        <v>0.06956521739130435</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1478260869565217</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01197053406998158</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2274401473296501</v>
+        <v>0.2304421768707483</v>
       </c>
       <c r="I19">
-        <v>0.07642725598526703</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="J19">
-        <v>0.3710865561694291</v>
+        <v>0.358843537414966</v>
       </c>
       <c r="K19">
-        <v>0.09208103130755065</v>
+        <v>0.09013605442176871</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02394106813996317</v>
+        <v>0.02295918367346939</v>
       </c>
       <c r="N19">
-        <v>0.0009208103130755065</v>
+        <v>0.0008503401360544217</v>
       </c>
       <c r="O19">
-        <v>0.0718232044198895</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1243093922651934</v>
+        <v>0.1335034013605442</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Grambling_A.xlsx
+++ b/team_specific_matrix/Grambling_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2230483271375465</v>
+        <v>0.2211221122112211</v>
       </c>
       <c r="C2">
-        <v>0.5241635687732342</v>
+        <v>0.5313531353135313</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003717472118959108</v>
+        <v>0.006600660066006601</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1524163568773234</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09665427509293681</v>
+        <v>0.0924092409240924</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006993006993006993</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C3">
-        <v>0.01398601398601399</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01398601398601399</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7622377622377622</v>
+        <v>0.7530120481927711</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2027972027972028</v>
+        <v>0.1927710843373494</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3061224489795918</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1135135135135135</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01621621621621622</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="F6">
-        <v>0.06486486486486487</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1945945945945946</v>
+        <v>0.1813725490196078</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02702702702702703</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1405405405405405</v>
+        <v>0.142156862745098</v>
       </c>
       <c r="R6">
-        <v>0.04324324324324325</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.4019607843137255</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09473684210526316</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01578947368421053</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06315789473684211</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1210526315789474</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03684210526315789</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1526315789473684</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="R7">
-        <v>0.07368421052631578</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="S7">
-        <v>0.4421052631578947</v>
+        <v>0.4405940594059406</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1124121779859485</v>
+        <v>0.1106290672451193</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01873536299765808</v>
+        <v>0.01952277657266811</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04449648711943794</v>
+        <v>0.04772234273318872</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1217798594847775</v>
+        <v>0.1171366594360087</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03044496487119438</v>
+        <v>0.03036876355748373</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1569086651053864</v>
+        <v>0.1626898047722343</v>
       </c>
       <c r="R8">
-        <v>0.07259953161592506</v>
+        <v>0.06941431670281996</v>
       </c>
       <c r="S8">
-        <v>0.4426229508196721</v>
+        <v>0.4425162689804772</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05454545454545454</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07878787878787878</v>
+        <v>0.08</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1636363636363636</v>
+        <v>0.16</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006060606060606061</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="S9">
-        <v>0.4363636363636363</v>
+        <v>0.4342857142857143</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.108974358974359</v>
+        <v>0.1149619611158073</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02564102564102564</v>
+        <v>0.0253592561284869</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07326007326007326</v>
+        <v>0.073541842772612</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1172161172161172</v>
+        <v>0.117497886728656</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01923076923076923</v>
+        <v>0.02113271344040575</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2344322344322344</v>
+        <v>0.231614539306847</v>
       </c>
       <c r="R10">
         <v>0.05494505494505494</v>
       </c>
       <c r="S10">
-        <v>0.3663003663003663</v>
+        <v>0.3609467455621302</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1642857142857143</v>
+        <v>0.1582491582491583</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06071428571428571</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.1952861952861953</v>
       </c>
       <c r="L11">
-        <v>0.5571428571428572</v>
+        <v>0.569023569023569</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01785714285714286</v>
+        <v>0.01683501683501683</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7368421052631579</v>
+        <v>0.7351351351351352</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.152046783625731</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="K12">
-        <v>0.02339181286549707</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="L12">
-        <v>0.03508771929824561</v>
+        <v>0.03783783783783784</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05263157894736842</v>
+        <v>0.05945945945945946</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6216216216216216</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2972972972972973</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08108108108108109</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01463414634146342</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1219512195121951</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="I15">
-        <v>0.08292682926829269</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J15">
-        <v>0.3707317073170732</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="K15">
-        <v>0.07804878048780488</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00975609756097561</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05853658536585366</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2634146341463415</v>
+        <v>0.2763157894736842</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005747126436781609</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1436781609195402</v>
+        <v>0.1624365482233502</v>
       </c>
       <c r="I16">
-        <v>0.07471264367816093</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="J16">
-        <v>0.4310344827586207</v>
+        <v>0.4162436548223351</v>
       </c>
       <c r="K16">
-        <v>0.1379310344827586</v>
+        <v>0.1421319796954315</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01724137931034483</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05172413793103448</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1379310344827586</v>
+        <v>0.1421319796954315</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01204819277108434</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2072289156626506</v>
+        <v>0.2067415730337079</v>
       </c>
       <c r="I17">
-        <v>0.0819277108433735</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="J17">
-        <v>0.4144578313253012</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="K17">
-        <v>0.1180722891566265</v>
+        <v>0.1191011235955056</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01204819277108434</v>
+        <v>0.01348314606741573</v>
       </c>
       <c r="N17">
-        <v>0.002409638554216868</v>
+        <v>0.002247191011235955</v>
       </c>
       <c r="O17">
-        <v>0.04337349397590361</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.108433734939759</v>
+        <v>0.1078651685393258</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1596638655462185</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="I18">
-        <v>0.06722689075630252</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="J18">
-        <v>0.4033613445378151</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="K18">
-        <v>0.1260504201680672</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01680672268907563</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N18">
-        <v>0.008403361344537815</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="O18">
-        <v>0.07563025210084033</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01530612244897959</v>
+        <v>0.01494885916601102</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2304421768707483</v>
+        <v>0.2289535798583792</v>
       </c>
       <c r="I19">
-        <v>0.07653061224489796</v>
+        <v>0.07395751376868608</v>
       </c>
       <c r="J19">
-        <v>0.358843537414966</v>
+        <v>0.3627065302911094</v>
       </c>
       <c r="K19">
-        <v>0.09013605442176871</v>
+        <v>0.08969315499606609</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02295918367346939</v>
+        <v>0.02281667977970102</v>
       </c>
       <c r="N19">
-        <v>0.0008503401360544217</v>
+        <v>0.0007867820613690008</v>
       </c>
       <c r="O19">
-        <v>0.07142857142857142</v>
+        <v>0.07238394964594808</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1335034013605442</v>
+        <v>0.1337529504327301</v>
       </c>
     </row>
   </sheetData>
